--- a/list.xlsx
+++ b/list.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="228"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>Nazwa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>background</t>
   </si>
@@ -53,6 +50,15 @@
     <t>armor_3</t>
   </si>
   <si>
+    <t>language_1</t>
+  </si>
+  <si>
+    <t>language_2</t>
+  </si>
+  <si>
+    <t>language_3</t>
+  </si>
+  <si>
     <t>Rita</t>
   </si>
   <si>
@@ -62,20 +68,62 @@
     <t>02236--2490181490-vividvisions_v10Lightning-LCM-9-2.png</t>
   </si>
   <si>
-    <t>health.png</t>
-  </si>
-  <si>
     <t>square.png</t>
   </si>
   <si>
-    <t>languages</t>
+    <t>Eldritch</t>
+  </si>
+  <si>
+    <t>Urghish</t>
+  </si>
+  <si>
+    <t>Drakonii</t>
+  </si>
+  <si>
+    <t>Kita</t>
+  </si>
+  <si>
+    <t>00228--725508986-duchaitenPonyXLNo_ponyNoScoreV30-Euler-35-6.png</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>weapon_1_image</t>
+  </si>
+  <si>
+    <t>weapon_2_image</t>
+  </si>
+  <si>
+    <t>weapon_3_image</t>
+  </si>
+  <si>
+    <t>weapon_3</t>
+  </si>
+  <si>
+    <t>armor_1_image</t>
+  </si>
+  <si>
+    <t>armor_2_image</t>
+  </si>
+  <si>
+    <t>armor_3_image</t>
+  </si>
+  <si>
+    <t>language_4</t>
+  </si>
+  <si>
+    <t>Ronw</t>
+  </si>
+  <si>
+    <t>00247--725509005-duchaitenPonyXLNo_ponyNoScoreV30-Euler-35-6.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +131,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA3BE8C"/>
+      <name val="Var(--ds-font-family-code)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -387,89 +443,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>